--- a/src/tarifas_vatia.xlsx
+++ b/src/tarifas_vatia.xlsx
@@ -493,4681 +493,4921 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CTSD</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+          <t>CHCD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>412.4243</v>
+        <v>317.6786</v>
       </c>
       <c r="E2" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F2" t="n">
-        <v>280.9065</v>
+        <v>91.379</v>
       </c>
       <c r="G2" t="n">
-        <v>108.0452</v>
+        <v>21.6067</v>
       </c>
       <c r="H2" t="n">
-        <v>123.0553</v>
+        <v>28.6634</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J2" t="n">
-        <v>985.0531999999999</v>
+        <v>558.6</v>
       </c>
       <c r="K2" t="n">
-        <v>985.0531999999999</v>
+        <v>558.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CTSD</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+          <t>CHCD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>412.4243</v>
+        <v>317.6786</v>
       </c>
       <c r="E3" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F3" t="n">
-        <v>230.1715</v>
+        <v>322.1339</v>
       </c>
       <c r="G3" t="n">
-        <v>108.0452</v>
+        <v>63.1107</v>
       </c>
       <c r="H3" t="n">
-        <v>123.0553</v>
+        <v>99.2534</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J3" t="n">
-        <v>934.3182</v>
+        <v>901.4795</v>
       </c>
       <c r="K3" t="n">
-        <v>934.3182</v>
+        <v>901.4795</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CTSD</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
+          <t>CHCD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>412.4243</v>
+        <v>317.6786</v>
       </c>
       <c r="E4" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F4" t="n">
-        <v>168.8021</v>
+        <v>207.5394</v>
       </c>
       <c r="G4" t="n">
-        <v>46.537</v>
+        <v>28.9739</v>
       </c>
       <c r="H4" t="n">
-        <v>28.1853</v>
+        <v>75.1934</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J4" t="n">
-        <v>716.5706</v>
+        <v>728.6631</v>
       </c>
       <c r="K4" t="n">
-        <v>716.5706</v>
+        <v>728.6631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CTSD</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
+          <t>CHCD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>412.4243</v>
+        <v>317.6786</v>
       </c>
       <c r="E5" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F5" t="n">
-        <v>113.6556</v>
+        <v>283.4787</v>
       </c>
       <c r="G5" t="n">
-        <v>34.5631</v>
+        <v>63.1107</v>
       </c>
       <c r="H5" t="n">
-        <v>28.1853</v>
+        <v>99.2534</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J5" t="n">
-        <v>649.4502</v>
+        <v>862.8243</v>
       </c>
       <c r="K5" t="n">
-        <v>649.4502</v>
+        <v>862.8243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EBSD</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
+          <t>CHCD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>386.0446</v>
+        <v>317.6786</v>
       </c>
       <c r="E6" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F6" t="n">
-        <v>195.2214</v>
+        <v>244.8235</v>
       </c>
       <c r="G6" t="n">
-        <v>83.52419999999999</v>
+        <v>63.1107</v>
       </c>
       <c r="H6" t="n">
-        <v>59.2095</v>
+        <v>99.2534</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J6" t="n">
-        <v>784.6215999999999</v>
+        <v>824.1691</v>
       </c>
       <c r="K6" t="n">
-        <v>784.6215999999999</v>
+        <v>824.1691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EBSD</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
+          <t>CDND</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>386.0446</v>
+        <v>315.5931</v>
       </c>
       <c r="E7" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F7" t="n">
-        <v>280.9065</v>
+        <v>265.262</v>
       </c>
       <c r="G7" t="n">
-        <v>83.52419999999999</v>
+        <v>63.5595</v>
       </c>
       <c r="H7" t="n">
-        <v>59.2095</v>
+        <v>72.4953</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J7" t="n">
-        <v>870.3067</v>
+        <v>816.2163</v>
       </c>
       <c r="K7" t="n">
-        <v>870.3067</v>
+        <v>816.2163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EBSD</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
+          <t>CDND</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>386.0446</v>
+        <v>315.5931</v>
       </c>
       <c r="E8" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F8" t="n">
-        <v>238.064</v>
+        <v>206.3499</v>
       </c>
       <c r="G8" t="n">
-        <v>83.52419999999999</v>
+        <v>63.5595</v>
       </c>
       <c r="H8" t="n">
-        <v>59.2095</v>
+        <v>72.4953</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J8" t="n">
-        <v>827.4642</v>
+        <v>757.3042</v>
       </c>
       <c r="K8" t="n">
-        <v>827.4642</v>
+        <v>757.3042</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EBSD</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
+          <t>CDND</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>386.0446</v>
+        <v>315.5931</v>
       </c>
       <c r="E9" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F9" t="n">
-        <v>113.6556</v>
+        <v>235.806</v>
       </c>
       <c r="G9" t="n">
-        <v>20.2657</v>
+        <v>63.5595</v>
       </c>
       <c r="H9" t="n">
-        <v>50.9157</v>
+        <v>72.4953</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J9" t="n">
-        <v>631.5035</v>
+        <v>786.7603</v>
       </c>
       <c r="K9" t="n">
-        <v>631.5035</v>
+        <v>786.7603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EBSD</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
+          <t>CDND</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>386.0446</v>
+        <v>315.5931</v>
       </c>
       <c r="E10" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F10" t="n">
-        <v>168.8021</v>
+        <v>153.457</v>
       </c>
       <c r="G10" t="n">
-        <v>23.7623</v>
+        <v>21.895</v>
       </c>
       <c r="H10" t="n">
-        <v>60.7576</v>
+        <v>72.00530000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J10" t="n">
-        <v>699.9885</v>
+        <v>662.2258</v>
       </c>
       <c r="K10" t="n">
-        <v>699.9885</v>
+        <v>662.2258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EEPD</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+          <t>CDND</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>385.1309</v>
+        <v>315.5931</v>
       </c>
       <c r="E11" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F11" t="n">
-        <v>292.1103</v>
+        <v>94.9269</v>
       </c>
       <c r="G11" t="n">
-        <v>68.422</v>
+        <v>15.4929</v>
       </c>
       <c r="H11" t="n">
-        <v>30.4144</v>
+        <v>54.5153</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J11" t="n">
-        <v>836.6994999999999</v>
+        <v>579.7988</v>
       </c>
       <c r="K11" t="n">
-        <v>836.6994999999999</v>
+        <v>579.7988</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EEPD</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
+          <t>CDID</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>385.1309</v>
+        <v>317.8981</v>
       </c>
       <c r="E12" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F12" t="n">
-        <v>248.2866</v>
+        <v>221.7972</v>
       </c>
       <c r="G12" t="n">
-        <v>68.422</v>
+        <v>73.4717</v>
       </c>
       <c r="H12" t="n">
-        <v>30.4144</v>
+        <v>31.2144</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J12" t="n">
-        <v>792.8758</v>
+        <v>743.6911</v>
       </c>
       <c r="K12" t="n">
-        <v>792.8758</v>
+        <v>743.6911</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EEPD</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
+          <t>CDID</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>385.1309</v>
+        <v>317.8981</v>
       </c>
       <c r="E13" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F13" t="n">
-        <v>186.892</v>
+        <v>94.9269</v>
       </c>
       <c r="G13" t="n">
-        <v>27.992</v>
+        <v>24.8447</v>
       </c>
       <c r="H13" t="n">
-        <v>30.4144</v>
+        <v>31.2144</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J13" t="n">
-        <v>691.0512</v>
+        <v>568.1579</v>
       </c>
       <c r="K13" t="n">
-        <v>691.0512</v>
+        <v>568.1579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EEPD</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
+          <t>CDID</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>385.1309</v>
+        <v>317.8981</v>
       </c>
       <c r="E14" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F14" t="n">
-        <v>270.1985</v>
+        <v>265.262</v>
       </c>
       <c r="G14" t="n">
-        <v>68.422</v>
+        <v>73.4717</v>
       </c>
       <c r="H14" t="n">
-        <v>30.4144</v>
+        <v>31.2144</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J14" t="n">
-        <v>814.7877</v>
+        <v>787.1559</v>
       </c>
       <c r="K14" t="n">
-        <v>814.7877</v>
+        <v>787.1559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EEPD</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
+          <t>CDID</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>385.1309</v>
+        <v>317.8981</v>
       </c>
       <c r="E15" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F15" t="n">
-        <v>88.26560000000001</v>
+        <v>178.3325</v>
       </c>
       <c r="G15" t="n">
-        <v>24.3916</v>
+        <v>73.4717</v>
       </c>
       <c r="H15" t="n">
-        <v>30.4144</v>
+        <v>31.2144</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J15" t="n">
-        <v>588.8244</v>
+        <v>700.2264</v>
       </c>
       <c r="K15" t="n">
-        <v>588.8244</v>
+        <v>700.2264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EBPD</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
+          <t>CDID</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>394.8219</v>
+        <v>317.8981</v>
       </c>
       <c r="E16" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F16" t="n">
-        <v>249.0104</v>
+        <v>153.457</v>
       </c>
       <c r="G16" t="n">
-        <v>56.2586</v>
+        <v>29.3385</v>
       </c>
       <c r="H16" t="n">
-        <v>27.2547</v>
+        <v>31.2144</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J16" t="n">
-        <v>787.9675</v>
+        <v>631.1851</v>
       </c>
       <c r="K16" t="n">
-        <v>787.9675</v>
+        <v>631.1851</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EBPD</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
+          <t>CNSD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>394.8219</v>
+        <v>317.8415</v>
       </c>
       <c r="E17" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F17" t="n">
-        <v>187.2652</v>
+        <v>322.1339</v>
       </c>
       <c r="G17" t="n">
-        <v>56.2586</v>
+        <v>70.71680000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>27.2547</v>
+        <v>81.60380000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J17" t="n">
-        <v>726.2223</v>
+        <v>891.6070999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>726.2223</v>
+        <v>891.6070999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EBPD</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
+          <t>CNSD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>394.8219</v>
+        <v>317.8415</v>
       </c>
       <c r="E18" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F18" t="n">
-        <v>218.1378</v>
+        <v>265.8079</v>
       </c>
       <c r="G18" t="n">
-        <v>56.2586</v>
+        <v>70.71680000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>27.2547</v>
+        <v>81.60380000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J18" t="n">
-        <v>757.0949000000001</v>
+        <v>835.2811</v>
       </c>
       <c r="K18" t="n">
-        <v>757.0949000000001</v>
+        <v>835.2811</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EBPD</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
+          <t>CNSD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>394.8219</v>
+        <v>317.8415</v>
       </c>
       <c r="E19" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F19" t="n">
-        <v>171.4121</v>
+        <v>293.9709</v>
       </c>
       <c r="G19" t="n">
-        <v>21.8508</v>
+        <v>70.71680000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>27.2547</v>
+        <v>81.60380000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J19" t="n">
-        <v>675.9614</v>
+        <v>863.4441</v>
       </c>
       <c r="K19" t="n">
-        <v>675.9614</v>
+        <v>863.4441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EBPD</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
+          <t>CNSD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>394.8219</v>
+        <v>317.8415</v>
       </c>
       <c r="E20" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F20" t="n">
-        <v>73.77460000000001</v>
+        <v>207.5394</v>
       </c>
       <c r="G20" t="n">
-        <v>18.5578</v>
+        <v>23.2048</v>
       </c>
       <c r="H20" t="n">
-        <v>27.2547</v>
+        <v>62.7438</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J20" t="n">
-        <v>575.0309</v>
+        <v>710.6056</v>
       </c>
       <c r="K20" t="n">
-        <v>575.0309</v>
+        <v>710.6056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EPSD</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
+          <t>CNSD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>412.5163</v>
+        <v>317.8415</v>
       </c>
       <c r="E21" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F21" t="n">
-        <v>257.7423</v>
+        <v>91.379</v>
       </c>
       <c r="G21" t="n">
-        <v>76.5796</v>
+        <v>23.8599</v>
       </c>
       <c r="H21" t="n">
-        <v>85.4374</v>
+        <v>63.1038</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J21" t="n">
-        <v>892.8975</v>
+        <v>595.4607</v>
       </c>
       <c r="K21" t="n">
-        <v>892.8975</v>
+        <v>595.4607</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EPSD</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
+          <t>CETD</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>412.5163</v>
+        <v>317.3988</v>
       </c>
       <c r="E22" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F22" t="n">
-        <v>188.2945</v>
+        <v>94.9269</v>
       </c>
       <c r="G22" t="n">
-        <v>76.5796</v>
+        <v>19.7321</v>
       </c>
       <c r="H22" t="n">
-        <v>85.4374</v>
+        <v>86.46850000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J22" t="n">
-        <v>823.4497</v>
+        <v>617.8</v>
       </c>
       <c r="K22" t="n">
-        <v>823.4497</v>
+        <v>617.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EPSD</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
+          <t>CETD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>412.5163</v>
+        <v>317.3988</v>
       </c>
       <c r="E23" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F23" t="n">
-        <v>223.0184</v>
+        <v>265.262</v>
       </c>
       <c r="G23" t="n">
-        <v>76.5796</v>
+        <v>59.7694</v>
       </c>
       <c r="H23" t="n">
-        <v>85.4374</v>
+        <v>114.1985</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J23" t="n">
-        <v>858.1736</v>
+        <v>855.932</v>
       </c>
       <c r="K23" t="n">
-        <v>858.1736</v>
+        <v>855.932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EPSD</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
+          <t>CETD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>412.5163</v>
+        <v>317.3988</v>
       </c>
       <c r="E24" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F24" t="n">
-        <v>153.3319</v>
+        <v>210.6157</v>
       </c>
       <c r="G24" t="n">
-        <v>31.9893</v>
+        <v>59.7694</v>
       </c>
       <c r="H24" t="n">
-        <v>100.4574</v>
+        <v>114.1985</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J24" t="n">
-        <v>758.9168</v>
+        <v>801.2857</v>
       </c>
       <c r="K24" t="n">
-        <v>758.9168</v>
+        <v>801.2857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EPSD</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>3</v>
+          <t>CETD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>412.5163</v>
+        <v>317.3988</v>
       </c>
       <c r="E25" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F25" t="n">
-        <v>91.7167</v>
+        <v>237.9389</v>
       </c>
       <c r="G25" t="n">
-        <v>27.1998</v>
+        <v>59.7694</v>
       </c>
       <c r="H25" t="n">
-        <v>57.6374</v>
+        <v>114.1985</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J25" t="n">
-        <v>649.6921</v>
+        <v>828.6088999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>649.6921</v>
+        <v>828.6088999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EPTD</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
+          <t>CETD</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>387.4352</v>
+        <v>317.3988</v>
       </c>
       <c r="E26" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F26" t="n">
-        <v>249.0104</v>
+        <v>153.457</v>
       </c>
       <c r="G26" t="n">
-        <v>81.5038</v>
+        <v>25.5559</v>
       </c>
       <c r="H26" t="n">
-        <v>27.4874</v>
+        <v>98.16849999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J26" t="n">
-        <v>806.0587</v>
+        <v>693.8582</v>
       </c>
       <c r="K26" t="n">
-        <v>806.0587</v>
+        <v>693.8582</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EPTD</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
+          <t>ESSD</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>387.4352</v>
+        <v>317.8698</v>
       </c>
       <c r="E27" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F27" t="n">
-        <v>186.4071</v>
+        <v>322.1339</v>
       </c>
       <c r="G27" t="n">
-        <v>81.5038</v>
+        <v>71.8327</v>
       </c>
       <c r="H27" t="n">
-        <v>27.4874</v>
+        <v>81.7269</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J27" t="n">
-        <v>743.4554000000001</v>
+        <v>892.8751</v>
       </c>
       <c r="K27" t="n">
-        <v>743.4554000000001</v>
+        <v>892.8751</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EPTD</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
+          <t>ESSD</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>387.4352</v>
+        <v>317.8698</v>
       </c>
       <c r="E28" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F28" t="n">
-        <v>217.7087</v>
+        <v>223.5469</v>
       </c>
       <c r="G28" t="n">
-        <v>81.5038</v>
+        <v>71.8327</v>
       </c>
       <c r="H28" t="n">
-        <v>27.4874</v>
+        <v>81.7269</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J28" t="n">
-        <v>774.7569999999999</v>
+        <v>794.2881</v>
       </c>
       <c r="K28" t="n">
-        <v>774.7569999999999</v>
+        <v>794.2881</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EPTD</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2</v>
+          <t>ESSD</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>387.4352</v>
+        <v>317.8698</v>
       </c>
       <c r="E29" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F29" t="n">
-        <v>171.4121</v>
+        <v>272.8404</v>
       </c>
       <c r="G29" t="n">
-        <v>30.9208</v>
+        <v>71.8327</v>
       </c>
       <c r="H29" t="n">
-        <v>27.4874</v>
+        <v>81.7269</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J29" t="n">
-        <v>677.8774</v>
+        <v>843.5816</v>
       </c>
       <c r="K29" t="n">
-        <v>677.8774</v>
+        <v>843.5816</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EPTD</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>3</v>
+          <t>ESSD</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>387.4352</v>
+        <v>317.8698</v>
       </c>
       <c r="E30" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F30" t="n">
-        <v>73.77460000000001</v>
+        <v>207.5394</v>
       </c>
       <c r="G30" t="n">
-        <v>17.0991</v>
+        <v>26.5848</v>
       </c>
       <c r="H30" t="n">
-        <v>27.4874</v>
+        <v>64.4969</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J30" t="n">
-        <v>566.4182</v>
+        <v>715.7693</v>
       </c>
       <c r="K30" t="n">
-        <v>566.4182</v>
+        <v>715.7693</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EDQD</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
+          <t>ESSD</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>387.4029</v>
+        <v>317.8698</v>
       </c>
       <c r="E31" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F31" t="n">
-        <v>260.8653</v>
+        <v>91.379</v>
       </c>
       <c r="G31" t="n">
-        <v>71.7811</v>
+        <v>20.3292</v>
       </c>
       <c r="H31" t="n">
-        <v>114.8394</v>
+        <v>65.8969</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J31" t="n">
-        <v>895.5106</v>
+        <v>594.7487</v>
       </c>
       <c r="K31" t="n">
-        <v>895.5106</v>
+        <v>594.7487</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EDQD</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
+          <t>CQTD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>387.4029</v>
+        <v>316.3108</v>
       </c>
       <c r="E32" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F32" t="n">
-        <v>292.1103</v>
+        <v>179.4642</v>
       </c>
       <c r="G32" t="n">
-        <v>71.7811</v>
+        <v>24.6381</v>
       </c>
       <c r="H32" t="n">
-        <v>114.8394</v>
+        <v>54.3495</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J32" t="n">
-        <v>926.7556</v>
+        <v>674.0416</v>
       </c>
       <c r="K32" t="n">
-        <v>926.7556</v>
+        <v>674.0416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EDQD</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
+          <t>CQTD</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>387.4029</v>
+        <v>316.3108</v>
       </c>
       <c r="E33" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F33" t="n">
-        <v>276.4878</v>
+        <v>79.8218</v>
       </c>
       <c r="G33" t="n">
-        <v>71.7811</v>
+        <v>19.1129</v>
       </c>
       <c r="H33" t="n">
-        <v>114.8394</v>
+        <v>53.7995</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J33" t="n">
-        <v>911.1331</v>
+        <v>568.3199</v>
       </c>
       <c r="K33" t="n">
-        <v>911.1331</v>
+        <v>568.3199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EDQD</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>3</v>
+          <t>CQTD</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>387.4029</v>
+        <v>316.3108</v>
       </c>
       <c r="E34" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F34" t="n">
-        <v>88.26560000000001</v>
+        <v>269.6139</v>
       </c>
       <c r="G34" t="n">
-        <v>22.8577</v>
+        <v>75.349</v>
       </c>
       <c r="H34" t="n">
-        <v>67.1793</v>
+        <v>54.8195</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J34" t="n">
-        <v>626.3274</v>
+        <v>815.4098</v>
       </c>
       <c r="K34" t="n">
-        <v>626.3274</v>
+        <v>815.4098</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EDQD</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2</v>
+          <t>CQTD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>387.4029</v>
+        <v>316.3108</v>
       </c>
       <c r="E35" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F35" t="n">
-        <v>186.892</v>
+        <v>212.1632</v>
       </c>
       <c r="G35" t="n">
-        <v>30.1597</v>
+        <v>75.349</v>
       </c>
       <c r="H35" t="n">
-        <v>88.9918</v>
+        <v>54.8195</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J35" t="n">
-        <v>754.0683</v>
+        <v>757.9591</v>
       </c>
       <c r="K35" t="n">
-        <v>754.0683</v>
+        <v>757.9591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENID</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
+          <t>CQTD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>389.9224</v>
+        <v>316.3108</v>
       </c>
       <c r="E36" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F36" t="n">
-        <v>280.9065</v>
+        <v>240.8885</v>
       </c>
       <c r="G36" t="n">
-        <v>58.6438</v>
+        <v>75.349</v>
       </c>
       <c r="H36" t="n">
-        <v>28.8591</v>
+        <v>54.8195</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J36" t="n">
-        <v>818.9537</v>
+        <v>786.6844</v>
       </c>
       <c r="K36" t="n">
-        <v>818.9537</v>
+        <v>786.6844</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENID</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
+          <t>HLAD</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>389.9224</v>
+        <v>316.7296</v>
       </c>
       <c r="E37" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F37" t="n">
-        <v>235.9731</v>
+        <v>302.8913</v>
       </c>
       <c r="G37" t="n">
-        <v>58.6438</v>
+        <v>69.1665</v>
       </c>
       <c r="H37" t="n">
-        <v>28.8591</v>
+        <v>50.8801</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J37" t="n">
-        <v>774.0203</v>
+        <v>838.9754</v>
       </c>
       <c r="K37" t="n">
-        <v>774.0203</v>
+        <v>838.9754</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ENID</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
+          <t>HLAD</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>389.9224</v>
+        <v>316.7296</v>
       </c>
       <c r="E38" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F38" t="n">
-        <v>258.4398</v>
+        <v>253.3368</v>
       </c>
       <c r="G38" t="n">
-        <v>58.6438</v>
+        <v>69.1665</v>
       </c>
       <c r="H38" t="n">
-        <v>28.8591</v>
+        <v>50.8801</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J38" t="n">
-        <v>796.487</v>
+        <v>789.4209</v>
       </c>
       <c r="K38" t="n">
-        <v>796.487</v>
+        <v>789.4209</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENID</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2</v>
+          <t>HLAD</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>389.9224</v>
+        <v>316.7296</v>
       </c>
       <c r="E39" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F39" t="n">
-        <v>168.8021</v>
+        <v>278.114</v>
       </c>
       <c r="G39" t="n">
-        <v>20.6441</v>
+        <v>69.1665</v>
       </c>
       <c r="H39" t="n">
-        <v>28.8591</v>
+        <v>50.8801</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J39" t="n">
-        <v>668.8496</v>
+        <v>814.1981</v>
       </c>
       <c r="K39" t="n">
-        <v>668.8496</v>
+        <v>814.1981</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENID</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>3</v>
+          <t>HLAD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>389.9224</v>
+        <v>316.7296</v>
       </c>
       <c r="E40" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F40" t="n">
-        <v>113.6556</v>
+        <v>192.3819</v>
       </c>
       <c r="G40" t="n">
-        <v>11.883</v>
+        <v>27.7291</v>
       </c>
       <c r="H40" t="n">
-        <v>28.8591</v>
+        <v>67.187</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J40" t="n">
-        <v>604.942</v>
+        <v>703.3048</v>
       </c>
       <c r="K40" t="n">
-        <v>604.942</v>
+        <v>703.3048</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EMID</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
+          <t>HLAD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>384.9245</v>
+        <v>316.7296</v>
       </c>
       <c r="E41" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7423</v>
+        <v>129.1811</v>
       </c>
       <c r="G41" t="n">
-        <v>70.19450000000001</v>
+        <v>21.5279</v>
       </c>
       <c r="H41" t="n">
-        <v>27.9696</v>
+        <v>95.23909999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J41" t="n">
-        <v>801.4528</v>
+        <v>661.9503</v>
       </c>
       <c r="K41" t="n">
-        <v>801.4528</v>
+        <v>661.9503</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EMID</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
+          <t>EMSD</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>384.9245</v>
+        <v>316.9047</v>
       </c>
       <c r="E42" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F42" t="n">
-        <v>226.1514</v>
+        <v>79.8218</v>
       </c>
       <c r="G42" t="n">
-        <v>70.19450000000001</v>
+        <v>21.8461</v>
       </c>
       <c r="H42" t="n">
-        <v>27.9696</v>
+        <v>52.5942</v>
       </c>
       <c r="I42" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J42" t="n">
-        <v>769.8619</v>
+        <v>570.4413</v>
       </c>
       <c r="K42" t="n">
-        <v>769.8619</v>
+        <v>570.4413</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHCD</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
+          <t>EMSD</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>385.7233</v>
+        <v>316.9047</v>
       </c>
       <c r="E43" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F43" t="n">
-        <v>253.4497</v>
+        <v>269.6139</v>
       </c>
       <c r="G43" t="n">
-        <v>71.90300000000001</v>
+        <v>60.7549</v>
       </c>
       <c r="H43" t="n">
-        <v>98.0166</v>
+        <v>74.8142</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J43" t="n">
-        <v>869.7145</v>
+        <v>821.391</v>
       </c>
       <c r="K43" t="n">
-        <v>869.7145</v>
+        <v>821.391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHCD</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2</v>
+          <t>EMSD</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>385.7233</v>
+        <v>316.9047</v>
       </c>
       <c r="E44" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F44" t="n">
-        <v>186.892</v>
+        <v>237.5792</v>
       </c>
       <c r="G44" t="n">
-        <v>32.2779</v>
+        <v>60.7549</v>
       </c>
       <c r="H44" t="n">
-        <v>72.1764</v>
+        <v>74.8142</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J44" t="n">
-        <v>737.6915</v>
+        <v>789.3563</v>
       </c>
       <c r="K44" t="n">
-        <v>737.6915</v>
+        <v>789.3563</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHCD</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
+          <t>EMSD</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>385.7233</v>
+        <v>316.9047</v>
       </c>
       <c r="E45" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F45" t="n">
-        <v>214.7891</v>
+        <v>253.5966</v>
       </c>
       <c r="G45" t="n">
-        <v>71.90300000000001</v>
+        <v>60.7549</v>
       </c>
       <c r="H45" t="n">
-        <v>98.0166</v>
+        <v>74.8142</v>
       </c>
       <c r="I45" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J45" t="n">
-        <v>831.0539</v>
+        <v>805.3737</v>
       </c>
       <c r="K45" t="n">
-        <v>831.0539</v>
+        <v>805.3737</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHCD</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
+          <t>EMSD</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>385.7233</v>
+        <v>316.9047</v>
       </c>
       <c r="E46" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F46" t="n">
-        <v>292.1103</v>
+        <v>179.4642</v>
       </c>
       <c r="G46" t="n">
-        <v>71.90300000000001</v>
+        <v>27.8197</v>
       </c>
       <c r="H46" t="n">
-        <v>98.0166</v>
+        <v>68.3342</v>
       </c>
       <c r="I46" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J46" t="n">
-        <v>908.3751</v>
+        <v>691.8018</v>
       </c>
       <c r="K46" t="n">
-        <v>908.3751</v>
+        <v>691.8018</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHCD</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>3</v>
+          <t>CTSD</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>385.7233</v>
+        <v>317.7396</v>
       </c>
       <c r="E47" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F47" t="n">
-        <v>88.26560000000001</v>
+        <v>302.8913</v>
       </c>
       <c r="G47" t="n">
-        <v>23.7253</v>
+        <v>84.1091</v>
       </c>
       <c r="H47" t="n">
-        <v>28.5157</v>
+        <v>126.0657</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J47" t="n">
-        <v>586.8518</v>
+        <v>930.124</v>
       </c>
       <c r="K47" t="n">
-        <v>586.8518</v>
+        <v>930.124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CDND</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
+          <t>CTSD</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>393.5208</v>
+        <v>317.7396</v>
       </c>
       <c r="E48" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F48" t="n">
-        <v>257.7423</v>
+        <v>214.4017</v>
       </c>
       <c r="G48" t="n">
-        <v>74.7137</v>
+        <v>84.1091</v>
       </c>
       <c r="H48" t="n">
-        <v>69.7903</v>
+        <v>126.0657</v>
       </c>
       <c r="I48" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J48" t="n">
-        <v>856.389</v>
+        <v>841.6344</v>
       </c>
       <c r="K48" t="n">
-        <v>856.389</v>
+        <v>841.6344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CDND</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
+          <t>CTSD</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>393.5208</v>
+        <v>317.7396</v>
       </c>
       <c r="E49" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F49" t="n">
-        <v>192.6254</v>
+        <v>258.6465</v>
       </c>
       <c r="G49" t="n">
-        <v>74.7137</v>
+        <v>84.1091</v>
       </c>
       <c r="H49" t="n">
-        <v>69.7903</v>
+        <v>126.0657</v>
       </c>
       <c r="I49" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J49" t="n">
-        <v>791.2721</v>
+        <v>885.8792</v>
       </c>
       <c r="K49" t="n">
-        <v>791.2721</v>
+        <v>885.8792</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CDND</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
+          <t>CTSD</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>393.5208</v>
+        <v>317.7396</v>
       </c>
       <c r="E50" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F50" t="n">
-        <v>225.1839</v>
+        <v>129.1811</v>
       </c>
       <c r="G50" t="n">
-        <v>74.7137</v>
+        <v>28.7464</v>
       </c>
       <c r="H50" t="n">
-        <v>69.7903</v>
+        <v>28.0757</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J50" t="n">
-        <v>823.8306</v>
+        <v>603.0201</v>
       </c>
       <c r="K50" t="n">
-        <v>823.8306</v>
+        <v>603.0201</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CDND</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
+          <t>CTSD</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>393.5208</v>
+        <v>317.7396</v>
       </c>
       <c r="E51" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F51" t="n">
-        <v>153.3319</v>
+        <v>192.3819</v>
       </c>
       <c r="G51" t="n">
-        <v>25.2212</v>
+        <v>38.2391</v>
       </c>
       <c r="H51" t="n">
-        <v>68.8036</v>
+        <v>28.0757</v>
       </c>
       <c r="I51" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J51" t="n">
-        <v>701.4994</v>
+        <v>675.7207</v>
       </c>
       <c r="K51" t="n">
-        <v>701.4994</v>
+        <v>675.7207</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CDND</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3</v>
+          <t>EBSD</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>393.5208</v>
+        <v>317.5926</v>
       </c>
       <c r="E52" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F52" t="n">
-        <v>91.7167</v>
+        <v>302.8913</v>
       </c>
       <c r="G52" t="n">
-        <v>17.6195</v>
+        <v>71.80970000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>52.0148</v>
+        <v>47.9009</v>
       </c>
       <c r="I52" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J52" t="n">
-        <v>615.4937</v>
+        <v>839.5083</v>
       </c>
       <c r="K52" t="n">
-        <v>615.4937</v>
+        <v>839.5083</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CDID</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
+          <t>EBSD</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>384.9028</v>
+        <v>317.5926</v>
       </c>
       <c r="E53" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F53" t="n">
-        <v>177.1002</v>
+        <v>218.1572</v>
       </c>
       <c r="G53" t="n">
-        <v>86.0754</v>
+        <v>71.80970000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>31.1571</v>
+        <v>47.9009</v>
       </c>
       <c r="I53" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J53" t="n">
-        <v>739.8574</v>
+        <v>754.7742</v>
       </c>
       <c r="K53" t="n">
-        <v>739.8574</v>
+        <v>754.7742</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CDID</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
+          <t>EBSD</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>384.9028</v>
+        <v>317.5926</v>
       </c>
       <c r="E54" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F54" t="n">
-        <v>257.7423</v>
+        <v>260.5243</v>
       </c>
       <c r="G54" t="n">
-        <v>86.0754</v>
+        <v>71.80970000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>31.1571</v>
+        <v>47.9009</v>
       </c>
       <c r="I54" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J54" t="n">
-        <v>820.4995</v>
+        <v>797.1413</v>
       </c>
       <c r="K54" t="n">
-        <v>820.4995</v>
+        <v>797.1413</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CDID</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
+          <t>EBSD</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>384.9028</v>
+        <v>317.5926</v>
       </c>
       <c r="E55" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F55" t="n">
-        <v>217.4213</v>
+        <v>192.3819</v>
       </c>
       <c r="G55" t="n">
-        <v>86.0754</v>
+        <v>20.7391</v>
       </c>
       <c r="H55" t="n">
-        <v>31.1571</v>
+        <v>59.7963</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J55" t="n">
-        <v>780.1785</v>
+        <v>689.7859</v>
       </c>
       <c r="K55" t="n">
-        <v>780.1785</v>
+        <v>689.7859</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CDID</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3</v>
+          <t>EBSD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>384.9028</v>
+        <v>317.5926</v>
       </c>
       <c r="E56" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F56" t="n">
-        <v>91.7167</v>
+        <v>129.1811</v>
       </c>
       <c r="G56" t="n">
-        <v>27.6554</v>
+        <v>17.7116</v>
       </c>
       <c r="H56" t="n">
-        <v>31.1571</v>
+        <v>53.2319</v>
       </c>
       <c r="I56" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J56" t="n">
-        <v>596.0539</v>
+        <v>616.991</v>
       </c>
       <c r="K56" t="n">
-        <v>596.0539</v>
+        <v>616.991</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CDID</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
+          <t>EEPD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>384.9028</v>
+        <v>317.837</v>
       </c>
       <c r="E57" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F57" t="n">
-        <v>153.3319</v>
+        <v>322.1339</v>
       </c>
       <c r="G57" t="n">
-        <v>32.9608</v>
+        <v>60.274</v>
       </c>
       <c r="H57" t="n">
-        <v>31.1571</v>
+        <v>30.2096</v>
       </c>
       <c r="I57" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J57" t="n">
-        <v>662.9745</v>
+        <v>829.7551</v>
       </c>
       <c r="K57" t="n">
-        <v>662.9745</v>
+        <v>829.7551</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CNSD</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
+          <t>EEPD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>385.1143</v>
+        <v>317.837</v>
       </c>
       <c r="E58" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F58" t="n">
-        <v>292.1103</v>
+        <v>275.6105</v>
       </c>
       <c r="G58" t="n">
-        <v>84.25709999999999</v>
+        <v>60.274</v>
       </c>
       <c r="H58" t="n">
-        <v>78.76739999999999</v>
+        <v>30.2096</v>
       </c>
       <c r="I58" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J58" t="n">
-        <v>900.871</v>
+        <v>783.2317</v>
       </c>
       <c r="K58" t="n">
-        <v>900.871</v>
+        <v>783.2317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CNSD</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
+          <t>EEPD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>385.1143</v>
+        <v>317.837</v>
       </c>
       <c r="E59" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F59" t="n">
-        <v>236.0613</v>
+        <v>298.8722</v>
       </c>
       <c r="G59" t="n">
-        <v>84.25709999999999</v>
+        <v>60.274</v>
       </c>
       <c r="H59" t="n">
-        <v>78.76739999999999</v>
+        <v>30.2096</v>
       </c>
       <c r="I59" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J59" t="n">
-        <v>844.822</v>
+        <v>806.4934</v>
       </c>
       <c r="K59" t="n">
-        <v>844.822</v>
+        <v>806.4934</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CNSD</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
+          <t>EEPD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>385.1143</v>
+        <v>317.837</v>
       </c>
       <c r="E60" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F60" t="n">
-        <v>264.0858</v>
+        <v>207.5394</v>
       </c>
       <c r="G60" t="n">
-        <v>84.25709999999999</v>
+        <v>25.383</v>
       </c>
       <c r="H60" t="n">
-        <v>78.76739999999999</v>
+        <v>30.2096</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J60" t="n">
-        <v>872.8465</v>
+        <v>680.2439000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>872.8465</v>
+        <v>680.2439000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CNSD</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
+          <t>EEPD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>385.1143</v>
+        <v>317.837</v>
       </c>
       <c r="E61" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F61" t="n">
-        <v>186.892</v>
+        <v>91.379</v>
       </c>
       <c r="G61" t="n">
-        <v>26.4994</v>
+        <v>22.2763</v>
       </c>
       <c r="H61" t="n">
-        <v>60.7785</v>
+        <v>30.2096</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J61" t="n">
-        <v>719.9061</v>
+        <v>560.9745</v>
       </c>
       <c r="K61" t="n">
-        <v>719.9061</v>
+        <v>560.9745</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CNSD</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3</v>
+          <t>EBPD</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>385.1143</v>
+        <v>315.2451</v>
       </c>
       <c r="E62" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F62" t="n">
-        <v>88.26560000000001</v>
+        <v>269.6139</v>
       </c>
       <c r="G62" t="n">
-        <v>27.3363</v>
+        <v>47.7244</v>
       </c>
       <c r="H62" t="n">
-        <v>51.8007</v>
+        <v>27.5496</v>
       </c>
       <c r="I62" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J62" t="n">
-        <v>613.1387999999999</v>
+        <v>759.428</v>
       </c>
       <c r="K62" t="n">
-        <v>613.1387999999999</v>
+        <v>759.428</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CETD</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
+          <t>EBPD</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>386.7692</v>
+        <v>315.2451</v>
       </c>
       <c r="E63" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F63" t="n">
-        <v>257.7423</v>
+        <v>210.3362</v>
       </c>
       <c r="G63" t="n">
-        <v>68.8301</v>
+        <v>47.7244</v>
       </c>
       <c r="H63" t="n">
-        <v>109.23</v>
+        <v>27.5496</v>
       </c>
       <c r="I63" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J63" t="n">
-        <v>883.1935</v>
+        <v>700.1503</v>
       </c>
       <c r="K63" t="n">
-        <v>883.1935</v>
+        <v>700.1503</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CETD</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
+          <t>EBPD</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>386.7692</v>
+        <v>315.2451</v>
       </c>
       <c r="E64" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F64" t="n">
-        <v>202.5847</v>
+        <v>239.975</v>
       </c>
       <c r="G64" t="n">
-        <v>68.8301</v>
+        <v>47.7244</v>
       </c>
       <c r="H64" t="n">
-        <v>109.23</v>
+        <v>27.5496</v>
       </c>
       <c r="I64" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J64" t="n">
-        <v>828.0359</v>
+        <v>729.7891</v>
       </c>
       <c r="K64" t="n">
-        <v>828.0359</v>
+        <v>729.7891</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CETD</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
+          <t>EBPD</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>386.7692</v>
+        <v>315.2451</v>
       </c>
       <c r="E65" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F65" t="n">
-        <v>153.3319</v>
+        <v>179.4642</v>
       </c>
       <c r="G65" t="n">
-        <v>28.9922</v>
+        <v>18.8713</v>
       </c>
       <c r="H65" t="n">
-        <v>99.93000000000001</v>
+        <v>27.5496</v>
       </c>
       <c r="I65" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J65" t="n">
-        <v>729.6452</v>
+        <v>640.4037</v>
       </c>
       <c r="K65" t="n">
-        <v>729.6452</v>
+        <v>640.4037</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CSSD</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
+          <t>EBPD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>387.8377</v>
+        <v>315.2451</v>
       </c>
       <c r="E66" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F66" t="n">
-        <v>174.6835</v>
+        <v>79.8218</v>
       </c>
       <c r="G66" t="n">
-        <v>109.444</v>
+        <v>16.1092</v>
       </c>
       <c r="H66" t="n">
-        <v>68.45659999999999</v>
+        <v>27.5496</v>
       </c>
       <c r="I66" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J66" t="n">
-        <v>801.0436999999999</v>
+        <v>537.9972</v>
       </c>
       <c r="K66" t="n">
-        <v>801.0436999999999</v>
+        <v>537.9972</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CSSD</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
+          <t>EPSD</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>387.8377</v>
+        <v>318.4279</v>
       </c>
       <c r="E67" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F67" t="n">
-        <v>140.9058</v>
+        <v>265.262</v>
       </c>
       <c r="G67" t="n">
-        <v>109.444</v>
+        <v>63.1098</v>
       </c>
       <c r="H67" t="n">
-        <v>68.45659999999999</v>
+        <v>85.5624</v>
       </c>
       <c r="I67" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J67" t="n">
-        <v>767.266</v>
+        <v>831.6672</v>
       </c>
       <c r="K67" t="n">
-        <v>767.266</v>
+        <v>831.6672</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CSSD</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
+          <t>EPSD</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>387.8377</v>
+        <v>318.4279</v>
       </c>
       <c r="E68" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F68" t="n">
-        <v>157.7947</v>
+        <v>194.7115</v>
       </c>
       <c r="G68" t="n">
-        <v>109.444</v>
+        <v>63.1098</v>
       </c>
       <c r="H68" t="n">
-        <v>68.45659999999999</v>
+        <v>85.5624</v>
       </c>
       <c r="I68" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J68" t="n">
-        <v>784.1549</v>
+        <v>761.1167</v>
       </c>
       <c r="K68" t="n">
-        <v>784.1549</v>
+        <v>761.1167</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CSSD</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2</v>
+          <t>EPSD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>387.8377</v>
+        <v>318.4279</v>
       </c>
       <c r="E69" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F69" t="n">
-        <v>116.2714</v>
+        <v>229.9867</v>
       </c>
       <c r="G69" t="n">
-        <v>46.2016</v>
+        <v>63.1098</v>
       </c>
       <c r="H69" t="n">
-        <v>55.1566</v>
+        <v>85.5624</v>
       </c>
       <c r="I69" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J69" t="n">
-        <v>666.0892</v>
+        <v>796.3919</v>
       </c>
       <c r="K69" t="n">
-        <v>666.0892</v>
+        <v>796.3919</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CSSD</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>3</v>
+          <t>EPSD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>387.8377</v>
+        <v>318.4279</v>
       </c>
       <c r="E70" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F70" t="n">
-        <v>83.6878</v>
+        <v>153.457</v>
       </c>
       <c r="G70" t="n">
-        <v>41.74</v>
+        <v>26.8304</v>
       </c>
       <c r="H70" t="n">
-        <v>55.1566</v>
+        <v>29.6824</v>
       </c>
       <c r="I70" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J70" t="n">
-        <v>629.044</v>
+        <v>627.6761</v>
       </c>
       <c r="K70" t="n">
-        <v>629.044</v>
+        <v>627.6761</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CMMD</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
+          <t>EPSD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>387.8377</v>
+        <v>318.4279</v>
       </c>
       <c r="E71" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F71" t="n">
-        <v>213.8783</v>
+        <v>94.9269</v>
       </c>
       <c r="G71" t="n">
-        <v>167.9123</v>
+        <v>22.9569</v>
       </c>
       <c r="H71" t="n">
-        <v>137.9983</v>
+        <v>29.6824</v>
       </c>
       <c r="I71" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J71" t="n">
-        <v>968.2485</v>
+        <v>565.2696</v>
       </c>
       <c r="K71" t="n">
-        <v>968.2485</v>
+        <v>565.2696</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CMMD</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
+          <t>EPTD</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>387.8377</v>
+        <v>317.2207</v>
       </c>
       <c r="E72" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F72" t="n">
-        <v>179.3061</v>
+        <v>179.4642</v>
       </c>
       <c r="G72" t="n">
-        <v>167.9123</v>
+        <v>27.8779</v>
       </c>
       <c r="H72" t="n">
-        <v>137.9983</v>
+        <v>27.7806</v>
       </c>
       <c r="I72" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J72" t="n">
-        <v>933.6763</v>
+        <v>651.625</v>
       </c>
       <c r="K72" t="n">
-        <v>933.6763</v>
+        <v>651.625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CMMD</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
+          <t>EPTD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>387.8377</v>
+        <v>317.2207</v>
       </c>
       <c r="E73" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F73" t="n">
-        <v>196.5922</v>
+        <v>79.8218</v>
       </c>
       <c r="G73" t="n">
-        <v>167.9123</v>
+        <v>15.7854</v>
       </c>
       <c r="H73" t="n">
-        <v>137.9983</v>
+        <v>27.7806</v>
       </c>
       <c r="I73" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J73" t="n">
-        <v>950.9624</v>
+        <v>539.8810999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>950.9624</v>
+        <v>539.8810999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CMMD</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2</v>
+          <t>EPTD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>387.8377</v>
+        <v>317.2207</v>
       </c>
       <c r="E74" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F74" t="n">
-        <v>136.1317</v>
+        <v>269.6139</v>
       </c>
       <c r="G74" t="n">
-        <v>48.1754</v>
+        <v>74.6703</v>
       </c>
       <c r="H74" t="n">
-        <v>116.8056</v>
+        <v>27.7806</v>
       </c>
       <c r="I74" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J74" t="n">
-        <v>749.5723</v>
+        <v>788.6016</v>
       </c>
       <c r="K74" t="n">
-        <v>749.5723</v>
+        <v>788.6016</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CMMD</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>3</v>
+          <t>EPTD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>387.8377</v>
+        <v>317.2207</v>
       </c>
       <c r="E75" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F75" t="n">
-        <v>105.4276</v>
+        <v>174.7603</v>
       </c>
       <c r="G75" t="n">
-        <v>33.852</v>
+        <v>74.6703</v>
       </c>
       <c r="H75" t="n">
-        <v>52.9047</v>
+        <v>27.7806</v>
       </c>
       <c r="I75" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J75" t="n">
-        <v>640.6439</v>
+        <v>693.748</v>
       </c>
       <c r="K75" t="n">
-        <v>640.6439</v>
+        <v>693.748</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EMID</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2</v>
+          <t>EPTD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>384.9245</v>
+        <v>317.2207</v>
       </c>
       <c r="E76" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F76" t="n">
-        <v>153.3319</v>
+        <v>222.1871</v>
       </c>
       <c r="G76" t="n">
-        <v>30.2592</v>
+        <v>74.6703</v>
       </c>
       <c r="H76" t="n">
-        <v>27.9696</v>
+        <v>27.7806</v>
       </c>
       <c r="I76" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J76" t="n">
-        <v>657.1070999999999</v>
+        <v>741.1748</v>
       </c>
       <c r="K76" t="n">
-        <v>657.1070999999999</v>
+        <v>741.1748</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EMID</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
+          <t>EDQD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>384.9245</v>
+        <v>317.2294</v>
       </c>
       <c r="E77" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F77" t="n">
-        <v>241.9469</v>
+        <v>322.1339</v>
       </c>
       <c r="G77" t="n">
-        <v>70.19450000000001</v>
+        <v>62.467</v>
       </c>
       <c r="H77" t="n">
-        <v>27.9696</v>
+        <v>108.8079</v>
       </c>
       <c r="I77" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J77" t="n">
-        <v>785.6574000000001</v>
+        <v>909.9421</v>
       </c>
       <c r="K77" t="n">
-        <v>785.6574000000001</v>
+        <v>909.9421</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EMID</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>3</v>
+          <t>EDQD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>384.9245</v>
+        <v>317.2294</v>
       </c>
       <c r="E78" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F78" t="n">
-        <v>91.7167</v>
+        <v>276.2747</v>
       </c>
       <c r="G78" t="n">
-        <v>27.5938</v>
+        <v>62.467</v>
       </c>
       <c r="H78" t="n">
-        <v>27.9696</v>
+        <v>108.8079</v>
       </c>
       <c r="I78" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J78" t="n">
-        <v>592.8265</v>
+        <v>864.0829</v>
       </c>
       <c r="K78" t="n">
-        <v>592.8265</v>
+        <v>864.0829</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CTID</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
+          <t>EDQD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>386.2108</v>
+        <v>317.2294</v>
       </c>
       <c r="E79" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F79" t="n">
-        <v>216.679</v>
+        <v>299.2043</v>
       </c>
       <c r="G79" t="n">
-        <v>95.2431</v>
+        <v>62.467</v>
       </c>
       <c r="H79" t="n">
-        <v>28.2542</v>
+        <v>108.8079</v>
       </c>
       <c r="I79" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J79" t="n">
-        <v>787.009</v>
+        <v>887.0125</v>
       </c>
       <c r="K79" t="n">
-        <v>787.009</v>
+        <v>887.0125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CTID</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
+          <t>EDQD</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>386.2108</v>
+        <v>317.2294</v>
       </c>
       <c r="E80" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F80" t="n">
-        <v>257.7423</v>
+        <v>207.5394</v>
       </c>
       <c r="G80" t="n">
-        <v>95.2431</v>
+        <v>26.7891</v>
       </c>
       <c r="H80" t="n">
-        <v>28.2542</v>
+        <v>83.1879</v>
       </c>
       <c r="I80" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J80" t="n">
-        <v>828.0723</v>
+        <v>734.0232999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>828.0723</v>
+        <v>734.0232999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CTID</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
+          <t>EDQD</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>386.2108</v>
+        <v>317.2294</v>
       </c>
       <c r="E81" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F81" t="n">
-        <v>237.2106</v>
+        <v>91.379</v>
       </c>
       <c r="G81" t="n">
-        <v>95.2431</v>
+        <v>20.5307</v>
       </c>
       <c r="H81" t="n">
-        <v>28.2542</v>
+        <v>63.4279</v>
       </c>
       <c r="I81" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J81" t="n">
-        <v>807.5406</v>
+        <v>591.8398999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>807.5406</v>
+        <v>591.8398999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CTID</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>3</v>
+          <t>ENID</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>386.2108</v>
+        <v>316.5555</v>
       </c>
       <c r="E82" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F82" t="n">
-        <v>91.7167</v>
+        <v>192.3819</v>
       </c>
       <c r="G82" t="n">
-        <v>26.1173</v>
+        <v>17.7887</v>
       </c>
       <c r="H82" t="n">
-        <v>28.2542</v>
+        <v>29.5916</v>
       </c>
       <c r="I82" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J82" t="n">
-        <v>592.9209</v>
+        <v>655.5924</v>
       </c>
       <c r="K82" t="n">
-        <v>592.9209</v>
+        <v>655.5924</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CTID</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2</v>
+          <t>ENID</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>386.2108</v>
+        <v>316.5555</v>
       </c>
       <c r="E83" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F83" t="n">
-        <v>153.3319</v>
+        <v>302.8913</v>
       </c>
       <c r="G83" t="n">
-        <v>32.1168</v>
+        <v>50.1269</v>
       </c>
       <c r="H83" t="n">
-        <v>28.2542</v>
+        <v>29.5916</v>
       </c>
       <c r="I83" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J83" t="n">
-        <v>660.5356</v>
+        <v>798.4640000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>660.5356</v>
+        <v>798.4640000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EPMD</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
+          <t>ENID</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>395.4195</v>
+        <v>316.5555</v>
       </c>
       <c r="E84" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F84" t="n">
-        <v>232.8667</v>
+        <v>244.7476</v>
       </c>
       <c r="G84" t="n">
-        <v>78.8792</v>
+        <v>50.1269</v>
       </c>
       <c r="H84" t="n">
-        <v>76.7655</v>
+        <v>29.5916</v>
       </c>
       <c r="I84" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J84" t="n">
-        <v>844.5528</v>
+        <v>740.3203</v>
       </c>
       <c r="K84" t="n">
-        <v>844.5528</v>
+        <v>740.3203</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EPMD</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
+          <t>ENID</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>395.4195</v>
+        <v>316.5555</v>
       </c>
       <c r="E85" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F85" t="n">
-        <v>292.1103</v>
+        <v>273.8194</v>
       </c>
       <c r="G85" t="n">
-        <v>78.8792</v>
+        <v>50.1269</v>
       </c>
       <c r="H85" t="n">
-        <v>76.7655</v>
+        <v>29.5916</v>
       </c>
       <c r="I85" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J85" t="n">
-        <v>903.7963999999999</v>
+        <v>769.3921</v>
       </c>
       <c r="K85" t="n">
-        <v>903.7963999999999</v>
+        <v>769.3921</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EPMD</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
+          <t>ENID</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>395.4195</v>
+        <v>316.5555</v>
       </c>
       <c r="E86" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F86" t="n">
-        <v>262.4885</v>
+        <v>129.1811</v>
       </c>
       <c r="G86" t="n">
-        <v>78.8792</v>
+        <v>10.6062</v>
       </c>
       <c r="H86" t="n">
-        <v>76.7655</v>
+        <v>29.5916</v>
       </c>
       <c r="I86" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J86" t="n">
-        <v>874.1746000000001</v>
+        <v>585.2038</v>
       </c>
       <c r="K86" t="n">
-        <v>874.1746000000001</v>
+        <v>585.2038</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EPMD</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>2</v>
+          <t>EMID</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>395.4195</v>
+        <v>317.8922</v>
       </c>
       <c r="E87" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F87" t="n">
-        <v>186.892</v>
+        <v>265.262</v>
       </c>
       <c r="G87" t="n">
-        <v>23.5433</v>
+        <v>53.6087</v>
       </c>
       <c r="H87" t="n">
-        <v>52.4055</v>
+        <v>28.9665</v>
       </c>
       <c r="I87" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J87" t="n">
-        <v>718.8822</v>
+        <v>765.0272</v>
       </c>
       <c r="K87" t="n">
-        <v>718.8822</v>
+        <v>765.0272</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EPMD</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>3</v>
+          <t>EMID</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>395.4195</v>
+        <v>317.8922</v>
       </c>
       <c r="E88" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F88" t="n">
-        <v>88.26560000000001</v>
+        <v>237.0727</v>
       </c>
       <c r="G88" t="n">
-        <v>20.7567</v>
+        <v>53.6087</v>
       </c>
       <c r="H88" t="n">
-        <v>52.2355</v>
+        <v>28.9665</v>
       </c>
       <c r="I88" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J88" t="n">
-        <v>617.2992</v>
+        <v>736.8379</v>
       </c>
       <c r="K88" t="n">
-        <v>617.2992</v>
+        <v>736.8379</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CASD</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
+          <t>EMID</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>386.047</v>
+        <v>317.8922</v>
       </c>
       <c r="E89" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F89" t="n">
-        <v>249.0104</v>
+        <v>251.1674</v>
       </c>
       <c r="G89" t="n">
-        <v>91.9581</v>
+        <v>53.6087</v>
       </c>
       <c r="H89" t="n">
-        <v>48.9802</v>
+        <v>28.9665</v>
       </c>
       <c r="I89" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J89" t="n">
-        <v>836.6176</v>
+        <v>750.9326</v>
       </c>
       <c r="K89" t="n">
-        <v>836.6176</v>
+        <v>750.9326</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CASD</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
+          <t>EMID</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>386.047</v>
+        <v>317.8922</v>
       </c>
       <c r="E90" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F90" t="n">
-        <v>170.7928</v>
+        <v>153.457</v>
       </c>
       <c r="G90" t="n">
-        <v>91.9581</v>
+        <v>24.7229</v>
       </c>
       <c r="H90" t="n">
-        <v>48.9802</v>
+        <v>28.9665</v>
       </c>
       <c r="I90" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J90" t="n">
-        <v>758.4</v>
+        <v>624.3151</v>
       </c>
       <c r="K90" t="n">
-        <v>758.4</v>
+        <v>624.3151</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CASD</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
+          <t>EMID</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>386.047</v>
+        <v>317.8922</v>
       </c>
       <c r="E91" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F91" t="n">
-        <v>209.9016</v>
+        <v>94.9269</v>
       </c>
       <c r="G91" t="n">
-        <v>91.9581</v>
+        <v>23.109</v>
       </c>
       <c r="H91" t="n">
-        <v>48.9802</v>
+        <v>28.9665</v>
       </c>
       <c r="I91" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J91" t="n">
-        <v>797.5088</v>
+        <v>564.1699</v>
       </c>
       <c r="K91" t="n">
-        <v>797.5088</v>
+        <v>564.1699</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CASD</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
+          <t>CTID</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>386.047</v>
+        <v>317.5481</v>
       </c>
       <c r="E92" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F92" t="n">
-        <v>171.4121</v>
+        <v>265.262</v>
       </c>
       <c r="G92" t="n">
-        <v>36.7753</v>
+        <v>74.4927</v>
       </c>
       <c r="H92" t="n">
-        <v>27.4044</v>
+        <v>28.5875</v>
       </c>
       <c r="I92" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J92" t="n">
-        <v>682.2607</v>
+        <v>785.2042</v>
       </c>
       <c r="K92" t="n">
-        <v>682.2607</v>
+        <v>785.2042</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CASD</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>3</v>
+          <t>CTID</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>386.047</v>
+        <v>317.5481</v>
       </c>
       <c r="E93" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F93" t="n">
-        <v>73.77460000000001</v>
+        <v>225.8631</v>
       </c>
       <c r="G93" t="n">
-        <v>31.5826</v>
+        <v>74.4927</v>
       </c>
       <c r="H93" t="n">
-        <v>27.4044</v>
+        <v>28.5875</v>
       </c>
       <c r="I93" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J93" t="n">
-        <v>579.4305000000001</v>
+        <v>745.8053</v>
       </c>
       <c r="K93" t="n">
-        <v>579.4305000000001</v>
+        <v>745.8053</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ENDD</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
+          <t>CTID</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>385.5938</v>
+        <v>317.5481</v>
       </c>
       <c r="E94" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F94" t="n">
-        <v>234.7345</v>
+        <v>245.5625</v>
       </c>
       <c r="G94" t="n">
-        <v>74.55719999999999</v>
+        <v>74.4927</v>
       </c>
       <c r="H94" t="n">
-        <v>29.5405</v>
+        <v>28.5875</v>
       </c>
       <c r="I94" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J94" t="n">
-        <v>785.0479</v>
+        <v>765.5047</v>
       </c>
       <c r="K94" t="n">
-        <v>785.0479</v>
+        <v>765.5047</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ENDD</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>1</v>
+          <t>CTID</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>385.5938</v>
+        <v>317.5481</v>
       </c>
       <c r="E95" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F95" t="n">
-        <v>280.9065</v>
+        <v>94.9269</v>
       </c>
       <c r="G95" t="n">
-        <v>74.55719999999999</v>
+        <v>22.0789</v>
       </c>
       <c r="H95" t="n">
-        <v>29.5405</v>
+        <v>28.5875</v>
       </c>
       <c r="I95" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J95" t="n">
-        <v>831.2199000000001</v>
+        <v>562.4166</v>
       </c>
       <c r="K95" t="n">
-        <v>831.2199000000001</v>
+        <v>562.4166</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ENDD</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
+          <t>CTID</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>385.5938</v>
+        <v>317.5481</v>
       </c>
       <c r="E96" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F96" t="n">
-        <v>257.8205</v>
+        <v>153.457</v>
       </c>
       <c r="G96" t="n">
-        <v>74.55719999999999</v>
+        <v>26.4105</v>
       </c>
       <c r="H96" t="n">
-        <v>29.5405</v>
+        <v>28.5875</v>
       </c>
       <c r="I96" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J96" t="n">
-        <v>808.1339</v>
+        <v>625.2814</v>
       </c>
       <c r="K96" t="n">
-        <v>808.1339</v>
+        <v>625.2814</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ENDD</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>3</v>
+          <t>EPMD</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>385.5938</v>
+        <v>317.8127</v>
       </c>
       <c r="E97" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F97" t="n">
-        <v>113.6556</v>
+        <v>322.1339</v>
       </c>
       <c r="G97" t="n">
-        <v>24.2219</v>
+        <v>67.55419999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>68.4705</v>
+        <v>68.4854</v>
       </c>
       <c r="I97" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J97" t="n">
-        <v>652.5637</v>
+        <v>875.2936999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>652.5637</v>
+        <v>875.2936999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ENDD</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2</v>
+          <t>EPMD</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>385.5938</v>
+        <v>317.8127</v>
       </c>
       <c r="E98" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F98" t="n">
-        <v>168.8021</v>
+        <v>240.4724</v>
       </c>
       <c r="G98" t="n">
-        <v>24.9159</v>
+        <v>67.55419999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>71.2405</v>
+        <v>68.4854</v>
       </c>
       <c r="I98" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J98" t="n">
-        <v>711.1742</v>
+        <v>793.6322</v>
       </c>
       <c r="K98" t="n">
-        <v>711.1742</v>
+        <v>793.6322</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CETD</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
+          <t>EPMD</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>386.7692</v>
+        <v>317.8127</v>
       </c>
       <c r="E99" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F99" t="n">
-        <v>230.1635</v>
+        <v>281.3032</v>
       </c>
       <c r="G99" t="n">
-        <v>68.8301</v>
+        <v>67.55419999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>109.23</v>
+        <v>68.4854</v>
       </c>
       <c r="I99" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J99" t="n">
-        <v>855.6147</v>
+        <v>834.463</v>
       </c>
       <c r="K99" t="n">
-        <v>855.6147</v>
+        <v>834.463</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CETD</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>3</v>
+          <t>EPMD</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>386.7692</v>
+        <v>317.8127</v>
       </c>
       <c r="E100" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F100" t="n">
-        <v>91.7167</v>
+        <v>207.5394</v>
       </c>
       <c r="G100" t="n">
-        <v>22.2101</v>
+        <v>20.8919</v>
       </c>
       <c r="H100" t="n">
-        <v>81.45</v>
+        <v>43.6254</v>
       </c>
       <c r="I100" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J100" t="n">
-        <v>642.7679000000001</v>
+        <v>689.1425</v>
       </c>
       <c r="K100" t="n">
-        <v>642.7679000000001</v>
+        <v>689.1425</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ESSD</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2</v>
+          <t>EPMD</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>385.0084</v>
+        <v>317.8127</v>
       </c>
       <c r="E101" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F101" t="n">
-        <v>186.892</v>
+        <v>91.379</v>
       </c>
       <c r="G101" t="n">
-        <v>29.973</v>
+        <v>18.606</v>
       </c>
       <c r="H101" t="n">
-        <v>62.9244</v>
+        <v>44.4354</v>
       </c>
       <c r="I101" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J101" t="n">
-        <v>725.4197</v>
+        <v>571.5045</v>
       </c>
       <c r="K101" t="n">
-        <v>725.4197</v>
+        <v>571.5045</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ESSD</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>1</v>
+          <t>CASD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>385.0084</v>
+        <v>317.5919</v>
       </c>
       <c r="E102" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F102" t="n">
-        <v>249.844</v>
+        <v>179.4642</v>
       </c>
       <c r="G102" t="n">
-        <v>82.38079999999999</v>
+        <v>33.928</v>
       </c>
       <c r="H102" t="n">
-        <v>78.98439999999999</v>
+        <v>27.3357</v>
       </c>
       <c r="I102" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J102" t="n">
-        <v>856.8395</v>
+        <v>657.5939</v>
       </c>
       <c r="K102" t="n">
-        <v>856.8395</v>
+        <v>657.5939</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ESSD</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
+          <t>CASD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>385.0084</v>
+        <v>317.5919</v>
       </c>
       <c r="E103" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F103" t="n">
-        <v>207.5776</v>
+        <v>269.6139</v>
       </c>
       <c r="G103" t="n">
-        <v>82.38079999999999</v>
+        <v>79.5861</v>
       </c>
       <c r="H103" t="n">
-        <v>78.98439999999999</v>
+        <v>48.6657</v>
       </c>
       <c r="I103" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J103" t="n">
-        <v>814.5731</v>
+        <v>814.7655</v>
       </c>
       <c r="K103" t="n">
-        <v>814.5731</v>
+        <v>814.7655</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ESSD</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
+          <t>CASD</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>385.0084</v>
+        <v>317.5919</v>
       </c>
       <c r="E104" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F104" t="n">
-        <v>292.1103</v>
+        <v>176.5338</v>
       </c>
       <c r="G104" t="n">
-        <v>82.38079999999999</v>
+        <v>79.5861</v>
       </c>
       <c r="H104" t="n">
-        <v>78.98439999999999</v>
+        <v>48.6657</v>
       </c>
       <c r="I104" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J104" t="n">
-        <v>899.1058</v>
+        <v>721.6854</v>
       </c>
       <c r="K104" t="n">
-        <v>899.1058</v>
+        <v>721.6854</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ESSD</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>3</v>
+          <t>CASD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>385.0084</v>
+        <v>317.5919</v>
       </c>
       <c r="E105" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F105" t="n">
-        <v>88.26560000000001</v>
+        <v>223.0739</v>
       </c>
       <c r="G105" t="n">
-        <v>22.7311</v>
+        <v>79.5861</v>
       </c>
       <c r="H105" t="n">
-        <v>64.4644</v>
+        <v>48.6657</v>
       </c>
       <c r="I105" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J105" t="n">
-        <v>621.0914</v>
+        <v>768.2255</v>
       </c>
       <c r="K105" t="n">
-        <v>621.0914</v>
+        <v>768.2255</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CQTD</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2</v>
+          <t>CASD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>390.8369</v>
+        <v>317.5919</v>
       </c>
       <c r="E106" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F106" t="n">
-        <v>171.4121</v>
+        <v>79.8218</v>
       </c>
       <c r="G106" t="n">
-        <v>29.5028</v>
+        <v>29.4809</v>
       </c>
       <c r="H106" t="n">
-        <v>52.6954</v>
+        <v>27.3357</v>
       </c>
       <c r="I106" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J106" t="n">
-        <v>705.0691</v>
+        <v>553.5012</v>
       </c>
       <c r="K106" t="n">
-        <v>705.0691</v>
+        <v>553.5012</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CQTD</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
+          <t>ENDD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>390.8369</v>
+        <v>317.7132</v>
       </c>
       <c r="E107" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F107" t="n">
-        <v>221.4045</v>
+        <v>302.8913</v>
       </c>
       <c r="G107" t="n">
-        <v>92.66849999999999</v>
+        <v>65.1459</v>
       </c>
       <c r="H107" t="n">
-        <v>54.2754</v>
+        <v>29.5242</v>
       </c>
       <c r="I107" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J107" t="n">
-        <v>819.8072</v>
+        <v>814.581</v>
       </c>
       <c r="K107" t="n">
-        <v>819.8072</v>
+        <v>814.581</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CQTD</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
+          <t>ENDD</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>390.8369</v>
+        <v>317.7132</v>
       </c>
       <c r="E108" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F108" t="n">
-        <v>193.7986</v>
+        <v>248.4661</v>
       </c>
       <c r="G108" t="n">
-        <v>92.66849999999999</v>
+        <v>65.1459</v>
       </c>
       <c r="H108" t="n">
-        <v>54.2754</v>
+        <v>29.5242</v>
       </c>
       <c r="I108" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J108" t="n">
-        <v>792.2012999999999</v>
+        <v>760.1558</v>
       </c>
       <c r="K108" t="n">
-        <v>792.2012999999999</v>
+        <v>760.1558</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CQTD</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
+          <t>ENDD</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>390.8369</v>
+        <v>317.7132</v>
       </c>
       <c r="E109" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F109" t="n">
-        <v>249.0104</v>
+        <v>275.6787</v>
       </c>
       <c r="G109" t="n">
-        <v>92.66849999999999</v>
+        <v>65.1459</v>
       </c>
       <c r="H109" t="n">
-        <v>54.2754</v>
+        <v>29.5242</v>
       </c>
       <c r="I109" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J109" t="n">
-        <v>847.4131</v>
+        <v>787.3684</v>
       </c>
       <c r="K109" t="n">
-        <v>847.4131</v>
+        <v>787.3684</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CQTD</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>3</v>
+          <t>ENDD</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>390.8369</v>
+        <v>317.7132</v>
       </c>
       <c r="E110" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F110" t="n">
-        <v>73.77460000000001</v>
+        <v>192.3819</v>
       </c>
       <c r="G110" t="n">
-        <v>22.3587</v>
+        <v>22.3567</v>
       </c>
       <c r="H110" t="n">
-        <v>51.4054</v>
+        <v>68.6942</v>
       </c>
       <c r="I110" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J110" t="n">
-        <v>598.9974999999999</v>
+        <v>700.4208</v>
       </c>
       <c r="K110" t="n">
-        <v>598.9974999999999</v>
+        <v>700.4208</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HLAD</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
+          <t>ENDD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>389.2713</v>
+        <v>317.7132</v>
       </c>
       <c r="E111" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F111" t="n">
-        <v>280.9065</v>
+        <v>129.1811</v>
       </c>
       <c r="G111" t="n">
-        <v>90.74339999999999</v>
+        <v>21.7046</v>
       </c>
       <c r="H111" t="n">
-        <v>50.445</v>
+        <v>61.1442</v>
       </c>
       <c r="I111" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J111" t="n">
-        <v>871.9881</v>
+        <v>629.0174</v>
       </c>
       <c r="K111" t="n">
-        <v>871.9881</v>
+        <v>629.0174</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HLAD</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
+          <t>CSSD</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>389.2713</v>
+        <v>317.1131</v>
       </c>
       <c r="E112" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F112" t="n">
-        <v>231.3572</v>
+        <v>92.1323</v>
       </c>
       <c r="G112" t="n">
-        <v>90.74339999999999</v>
+        <v>43.056</v>
       </c>
       <c r="H112" t="n">
-        <v>50.445</v>
+        <v>55.1999</v>
       </c>
       <c r="I112" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J112" t="n">
-        <v>822.4388</v>
+        <v>606.7811</v>
       </c>
       <c r="K112" t="n">
-        <v>822.4388</v>
+        <v>606.7811</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HLAD</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
+          <t>CSSD</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>389.2713</v>
+        <v>317.1131</v>
       </c>
       <c r="E113" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F113" t="n">
-        <v>256.1318</v>
+        <v>133.0225</v>
       </c>
       <c r="G113" t="n">
-        <v>90.74339999999999</v>
+        <v>97.25839999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>50.445</v>
+        <v>70.18989999999999</v>
       </c>
       <c r="I113" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J113" t="n">
-        <v>847.2134</v>
+        <v>716.9037</v>
       </c>
       <c r="K113" t="n">
-        <v>847.2134</v>
+        <v>716.9037</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HLAD</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2</v>
+          <t>CSSD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>389.2713</v>
+        <v>317.1131</v>
       </c>
       <c r="E114" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F114" t="n">
-        <v>168.8021</v>
+        <v>112.3954</v>
       </c>
       <c r="G114" t="n">
-        <v>33.3256</v>
+        <v>97.25839999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>68.17230000000001</v>
+        <v>70.18989999999999</v>
       </c>
       <c r="I114" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J114" t="n">
-        <v>720.1932</v>
+        <v>696.2766</v>
       </c>
       <c r="K114" t="n">
-        <v>720.1932</v>
+        <v>696.2766</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HLAD</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>3</v>
+          <t>CSSD</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>389.2713</v>
+        <v>317.1131</v>
       </c>
       <c r="E115" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F115" t="n">
-        <v>113.6556</v>
+        <v>122.709</v>
       </c>
       <c r="G115" t="n">
-        <v>24.6445</v>
+        <v>97.25839999999999</v>
       </c>
       <c r="H115" t="n">
-        <v>87.23220000000001</v>
+        <v>70.18989999999999</v>
       </c>
       <c r="I115" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J115" t="n">
-        <v>675.4255000000001</v>
+        <v>706.5902</v>
       </c>
       <c r="K115" t="n">
-        <v>675.4255000000001</v>
+        <v>706.5902</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EMSD</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2</v>
+          <t>CSSD</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>388.6167</v>
+        <v>317.1131</v>
       </c>
       <c r="E116" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F116" t="n">
-        <v>171.4121</v>
+        <v>72.90730000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>31.7155</v>
+        <v>39.2226</v>
       </c>
       <c r="H116" t="n">
-        <v>63.1133</v>
+        <v>55.1999</v>
       </c>
       <c r="I116" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J116" t="n">
-        <v>715.4795</v>
+        <v>583.7198</v>
       </c>
       <c r="K116" t="n">
-        <v>715.4795</v>
+        <v>583.7198</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EMSD</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
+          <t>CMMD</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>50% OPERADOR</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>388.6167</v>
+        <v>317.113</v>
       </c>
       <c r="E117" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F117" t="n">
-        <v>232.5671</v>
+        <v>139.8606</v>
       </c>
       <c r="G117" t="n">
-        <v>70.2754</v>
+        <v>40.6492</v>
       </c>
       <c r="H117" t="n">
-        <v>75.892</v>
+        <v>114.7981</v>
       </c>
       <c r="I117" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J117" t="n">
-        <v>827.9731</v>
+        <v>711.7083</v>
       </c>
       <c r="K117" t="n">
-        <v>827.9731</v>
+        <v>711.7083</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EMSD</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
+          <t>CMMD</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>388.6167</v>
+        <v>317.113</v>
       </c>
       <c r="E118" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F118" t="n">
-        <v>216.1238</v>
+        <v>108.9225</v>
       </c>
       <c r="G118" t="n">
-        <v>70.2754</v>
+        <v>29.6402</v>
       </c>
       <c r="H118" t="n">
-        <v>75.892</v>
+        <v>52.0581</v>
       </c>
       <c r="I118" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J118" t="n">
-        <v>811.5298</v>
+        <v>607.0131</v>
       </c>
       <c r="K118" t="n">
-        <v>811.5298</v>
+        <v>607.0131</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EMSD</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
+          <t>CMMD</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>100% OPERADOR</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>100% OPERADOR</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>388.6167</v>
+        <v>317.113</v>
       </c>
       <c r="E119" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F119" t="n">
-        <v>249.0104</v>
+        <v>214.7089</v>
       </c>
       <c r="G119" t="n">
-        <v>70.2754</v>
+        <v>134.4919</v>
       </c>
       <c r="H119" t="n">
-        <v>75.892</v>
+        <v>137.9181</v>
       </c>
       <c r="I119" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J119" t="n">
-        <v>844.4164</v>
+        <v>903.5884</v>
       </c>
       <c r="K119" t="n">
-        <v>844.4164</v>
+        <v>903.5884</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EMSD</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>3</v>
+          <t>CMMD</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>100% USUARIO</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>388.6167</v>
+        <v>317.113</v>
       </c>
       <c r="E120" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F120" t="n">
-        <v>73.77460000000001</v>
+        <v>178.8715</v>
       </c>
       <c r="G120" t="n">
-        <v>24.7277</v>
+        <v>134.4919</v>
       </c>
       <c r="H120" t="n">
-        <v>54.3117</v>
+        <v>137.9181</v>
       </c>
       <c r="I120" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J120" t="n">
-        <v>602.0526</v>
+        <v>867.751</v>
       </c>
       <c r="K120" t="n">
-        <v>602.0526</v>
+        <v>867.751</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CTSD</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
+          <t>CMMD</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>50% OPERADOR</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>100% USUARIO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>412.4243</v>
+        <v>317.113</v>
       </c>
       <c r="E121" t="n">
-        <v>56.0327</v>
+        <v>62.1955</v>
       </c>
       <c r="F121" t="n">
-        <v>179.4366</v>
+        <v>196.7902</v>
       </c>
       <c r="G121" t="n">
-        <v>108.0452</v>
+        <v>134.4919</v>
       </c>
       <c r="H121" t="n">
-        <v>123.0553</v>
+        <v>137.9181</v>
       </c>
       <c r="I121" t="n">
-        <v>4.5892</v>
+        <v>36.7813</v>
       </c>
       <c r="J121" t="n">
-        <v>883.5833</v>
+        <v>885.6697</v>
       </c>
       <c r="K121" t="n">
-        <v>883.5833</v>
+        <v>885.6697</v>
       </c>
     </row>
   </sheetData>
